--- a/data/trans_dic/P16A02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,22%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>9,86; 18,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>17,05; 26,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>24,49; 35,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>13,82; 23,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>27,74; 39,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>39,85; 49,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>12,93; 19,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>23,66; 31,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>33,56; 40,93</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,65%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>7,12; 12,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>17,52; 24,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>14,08; 20,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>20,04; 28,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>19,17; 25,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>30,26; 39,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>26,3; 34,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>37,32; 44,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>13,75; 18,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>25,22; 31,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>20,73; 26,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>29,88; 35,96</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,5%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,16%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>7,85; 14,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>17,43; 27,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>15,56; 23,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>24,17; 34,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>24,04; 34,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>27,54; 37,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>27,94; 38,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>38,08; 46,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>16,86; 23,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>24,03; 30,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>23,3; 29,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>32,76; 39,54</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,25%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>11,29; 18,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>15,47; 21,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>23,86; 33,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>24,5; 37,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>18,68; 26,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>30,83; 38,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>40,59; 51,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>35,73; 47,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>16,07; 21,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>23,78; 28,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>33,89; 41,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>33,12; 41,74</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,4%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,73%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>10,08; 19,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>12,19; 22,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>9,4; 18,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>18,37; 28,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>19,37; 32,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>37,73; 51,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>23,68; 36,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>34,35; 44,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>16,05; 23,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>26,5; 35,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>18,03; 25,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>28,62; 35,09</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,27%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>9,77; 18,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>15,03; 24,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>11,2; 19,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>25,0; 34,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>19,82; 29,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>31,61; 43,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>20,43; 31,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>38,26; 48,38</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>15,96; 22,63</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>24,92; 33,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>16,98; 24,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>32,7; 39,65</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,88%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,33%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,33%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,49%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>11,45; 17,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>14,01; 20,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>12,09; 17,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>23,25; 30,99</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>17,58; 24,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>28,69; 35,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>18,93; 25,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>40,28; 68,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>15,43; 19,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>22,39; 27,18</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>16,47; 20,85</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>33,73; 55,07</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,89%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>15,23; 20,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>11,79; 17,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>17,4; 23,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>10,29; 15,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>23,85; 30,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>25,86; 32,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>29,93; 36,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>27,97; 34,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>20,52; 24,78</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>19,82; 24,2</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>24,46; 29,14</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>19,45; 24,06</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,81%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,79; 15,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,42; 19,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,53; 20,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>21,95; 25,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>22,27; 25,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,8; 35,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,64; 32,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>38,59; 46,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,95; 19,93</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,74; 26,97</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,12; 26,16</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>31,23; 36,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,45%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>37,22%</t>
+          <t>36,31%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,47; 21,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,49; 35,93</t>
+          <t>23,68; 35,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,94; 31,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,85; 49,09</t>
+          <t>39,09; 48,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,09; 25,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,56; 40,93</t>
+          <t>32,16; 40,16</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>31,86%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,04; 28,67</t>
+          <t>19,33; 28,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,32; 44,74</t>
+          <t>37,1; 44,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,88; 35,96</t>
+          <t>29,08; 35,25</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>42,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>35,69%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,17; 34,22</t>
+          <t>23,83; 33,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,08; 46,96</t>
+          <t>37,81; 46,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,76; 39,54</t>
+          <t>32,31; 39,15</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>40,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,09%</t>
+          <t>34,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>33,17%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 21,76</t>
+          <t>15,33; 24,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 37,39</t>
+          <t>23,91; 37,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,83; 38,03</t>
+          <t>35,88; 45,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,73; 47,27</t>
+          <t>18,83; 43,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,78; 28,84</t>
+          <t>26,56; 33,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,12; 41,74</t>
+          <t>24,59; 38,66</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>39,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>31,86%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,37; 28,19</t>
+          <t>18,38; 28,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,35; 44,26</t>
+          <t>34,74; 44,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,62; 35,09</t>
+          <t>28,72; 35,16</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>43,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>35,96%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,0; 34,38</t>
+          <t>24,63; 34,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,26; 48,38</t>
+          <t>38,25; 48,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,7; 39,65</t>
+          <t>32,37; 39,35</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>49,33%</t>
+          <t>55,25%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>43,12%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,25; 30,99</t>
+          <t>22,9; 30,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,28; 68,46</t>
+          <t>40,09; 78,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,73; 55,07</t>
+          <t>33,3; 64,69</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>31,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>19,28%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,29; 15,73</t>
+          <t>4,6; 14,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>27,97; 34,06</t>
+          <t>28,4; 34,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,45; 24,06</t>
+          <t>12,42; 23,19</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>40,96%</t>
+          <t>41,94%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>32,47%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,95; 25,5</t>
+          <t>17,97; 24,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>38,59; 46,86</t>
+          <t>37,58; 52,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>31,23; 36,44</t>
+          <t>29,28; 39,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 18,65</t>
+          <t>9,95; 18,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 21,76</t>
+          <t>12,69; 22,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,05; 26,78</t>
+          <t>16,86; 27,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,68; 35,8</t>
+          <t>23,36; 35,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 23,48</t>
+          <t>13,93; 24,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,94; 31,69</t>
+          <t>21,01; 31,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,74; 39,13</t>
+          <t>28,1; 39,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,09; 48,81</t>
+          <t>38,89; 48,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,93; 19,18</t>
+          <t>13,14; 19,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,09; 25,24</t>
+          <t>17,78; 25,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,66; 31,45</t>
+          <t>23,74; 31,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,16; 40,16</t>
+          <t>32,23; 40,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 12,67</t>
+          <t>7,01; 12,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,93</t>
+          <t>17,77; 25,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,08; 20,89</t>
+          <t>13,84; 20,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,33; 28,04</t>
+          <t>19,03; 27,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,17; 25,95</t>
+          <t>18,81; 25,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,26; 39,14</t>
+          <t>30,56; 39,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,3; 34,47</t>
+          <t>26,14; 34,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,1; 44,59</t>
+          <t>36,84; 44,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 18,25</t>
+          <t>13,79; 18,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,22; 31,04</t>
+          <t>25,05; 30,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,73; 26,44</t>
+          <t>21,02; 26,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,08; 35,25</t>
+          <t>29,0; 35,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 14,82</t>
+          <t>7,5; 14,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,43; 27,08</t>
+          <t>17,74; 26,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 23,79</t>
+          <t>15,63; 24,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,83; 33,91</t>
+          <t>24,1; 33,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,04; 34,06</t>
+          <t>24,33; 34,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 37,94</t>
+          <t>26,99; 37,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,94; 38,59</t>
+          <t>28,15; 38,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,81; 46,74</t>
+          <t>37,67; 46,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 23,19</t>
+          <t>17,13; 23,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>24,03; 30,97</t>
+          <t>23,86; 30,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>23,3; 29,92</t>
+          <t>23,19; 30,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,31; 39,15</t>
+          <t>32,6; 39,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,29; 18,58</t>
+          <t>11,34; 18,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,33; 24,59</t>
+          <t>15,55; 24,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,86; 33,31</t>
+          <t>23,95; 33,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,91; 37,1</t>
+          <t>24,42; 37,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,68; 26,92</t>
+          <t>18,5; 26,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,88; 45,55</t>
+          <t>36,21; 46,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,59; 51,24</t>
+          <t>40,98; 51,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,83; 43,91</t>
+          <t>20,5; 44,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 21,72</t>
+          <t>16,05; 21,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,56; 33,81</t>
+          <t>26,84; 33,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,89; 41,14</t>
+          <t>33,75; 40,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>24,59; 38,66</t>
+          <t>24,71; 38,7</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,08; 19,53</t>
+          <t>10,0; 19,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,19; 22,95</t>
+          <t>11,8; 22,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 18,61</t>
+          <t>9,41; 18,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,38; 28,18</t>
+          <t>18,5; 28,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,37; 32,24</t>
+          <t>19,05; 31,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,73; 51,74</t>
+          <t>37,53; 50,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,68; 36,14</t>
+          <t>23,68; 35,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,74; 44,41</t>
+          <t>34,58; 43,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,05; 23,93</t>
+          <t>16,09; 23,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,5; 35,86</t>
+          <t>26,72; 36,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,03; 25,85</t>
+          <t>18,41; 25,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,72; 35,16</t>
+          <t>28,81; 35,73</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,77; 18,12</t>
+          <t>9,95; 17,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,03; 24,96</t>
+          <t>15,07; 24,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,2; 19,95</t>
+          <t>10,83; 20,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,63; 34,11</t>
+          <t>24,94; 34,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,82; 29,93</t>
+          <t>19,68; 30,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,61; 43,69</t>
+          <t>32,24; 43,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,43; 31,04</t>
+          <t>20,22; 31,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,25; 48,4</t>
+          <t>38,27; 48,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,96; 22,63</t>
+          <t>16,17; 22,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,92; 33,17</t>
+          <t>25,16; 32,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>16,98; 24,23</t>
+          <t>16,9; 23,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>32,37; 39,35</t>
+          <t>32,37; 39,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,45; 17,07</t>
+          <t>11,74; 17,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,01; 20,19</t>
+          <t>13,73; 19,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,09; 17,97</t>
+          <t>12,2; 18,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,9; 30,92</t>
+          <t>22,67; 31,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,58; 24,44</t>
+          <t>17,66; 23,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,69; 35,95</t>
+          <t>28,81; 35,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,93; 25,52</t>
+          <t>18,84; 25,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,09; 78,46</t>
+          <t>39,75; 75,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,43; 19,9</t>
+          <t>15,51; 19,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>22,39; 27,18</t>
+          <t>22,32; 27,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,47; 20,85</t>
+          <t>16,4; 20,69</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,3; 64,69</t>
+          <t>33,28; 65,76</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,46</t>
+          <t>15,04; 20,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,79; 17,02</t>
+          <t>11,91; 17,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,4; 23,36</t>
+          <t>17,11; 22,87</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 14,35</t>
+          <t>4,45; 14,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,85; 30,45</t>
+          <t>23,59; 30,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,86; 32,45</t>
+          <t>25,84; 32,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,93; 36,91</t>
+          <t>29,96; 36,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>28,4; 34,21</t>
+          <t>28,26; 34,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,52; 24,78</t>
+          <t>20,61; 24,81</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>19,82; 24,2</t>
+          <t>19,64; 24,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24,46; 29,14</t>
+          <t>24,48; 29,3</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,42; 23,19</t>
+          <t>12,16; 23,27</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,79; 15,17</t>
+          <t>12,8; 15,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,42; 19,32</t>
+          <t>16,55; 19,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,53; 20,27</t>
+          <t>17,67; 20,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,95</t>
+          <t>17,4; 24,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,27; 25,25</t>
+          <t>22,52; 25,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,8; 35,11</t>
+          <t>31,8; 35,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>29,64; 32,77</t>
+          <t>29,45; 32,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>37,58; 52,28</t>
+          <t>37,91; 53,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>17,95; 19,93</t>
+          <t>18,03; 19,95</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>24,74; 26,97</t>
+          <t>24,79; 26,98</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>24,12; 26,16</t>
+          <t>24,02; 26,25</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>29,28; 39,3</t>
+          <t>29,14; 39,03</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37522</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>49490</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>63251</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>90928</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>47684</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>72959</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>96556</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>127327</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>85207</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>122449</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>159808</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>218255</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27159; 50720</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37072; 64712</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>49533; 79621</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>72757; 111689</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36327; 62603</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>59658; 89471</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>81125; 114866</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>112647; 141372</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>70168; 103942</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>102467; 144586</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>138277; 182946</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>193715; 241604</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>46980</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>106042</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>85931</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>119718</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>112216</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>181443</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>156607</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>209328</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>159196</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>287485</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>242538</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>329046</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>34557; 61241</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>89845; 126785</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>69565; 103304</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>98673; 142780</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>94783; 130194</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>159743; 204529</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>136749; 179668</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>189453; 230515</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>137495; 183565</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>257622; 317945</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>215570; 271109</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>299479; 361560</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34480</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>71885</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>62523</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>90464</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>96246</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>110030</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>111047</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>146969</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>130725</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>181916</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>173570</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>237434</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23919; 46844</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>57324; 87220</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>49791; 77389</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>76154; 106793</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81609; 115066</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>92030; 127728</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>94659; 128090</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>131504; 163371</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>112093; 153313</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>158458; 205440</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>151847; 196607</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>216871; 259852</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>53478</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>73080</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>104830</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>95148</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>83278</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>157880</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>177603</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>166330</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>136756</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>230960</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>282434</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>261478</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40683; 66956</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>58168; 91519</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>88599; 123702</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>76340; 116789</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>68726; 99774</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>140485; 180370</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>158702; 198478</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>97535; 210352</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>117163; 158692</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>204545; 256438</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>255554; 308406</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>194780; 305072</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>28841</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35900</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>29331</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>41295</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>52440</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>97495</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>64912</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>82113</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>81281</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>133395</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>94243</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>123408</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20328; 39661</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25089; 48039</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>19885; 39670</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>33067; 51199</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>39552; 66169</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>82415; 111495</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>51763; 77839</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>72153; 91600</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>66110; 98032</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>115499; 156099</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>79142; 111398</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>111599; 138426</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>36405</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>53002</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>39734</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>78873</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>68564</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>105811</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>69383</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>110535</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>104970</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>158813</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>109117</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>189408</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>26959; 47821</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>41299; 67119</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>28492; 52791</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>67256; 92751</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>54729; 83917</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>90009; 120500</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>55224; 84661</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>98382; 123621</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>88768; 123121</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>139173; 181575</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>90627; 128458</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>170493; 207181</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>86649</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>111374</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>98385</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>166105</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>133292</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>224307</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>152057</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>469240</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>219941</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>335681</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>250442</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>635345</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>72200; 106342</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>90997; 132446</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>80125; 119526</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>141552; 194636</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>112687; 152146</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>199877; 248255</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>130208; 174829</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>337568; 643041</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>194416; 248974</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>302736; 366369</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>221112; 278831</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>490442; 969026</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>131438</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>110609</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>156460</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>94263</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>212897</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>239046</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>274190</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>222539</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>344335</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>349654</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>430650</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>316802</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>111704; 154305</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>92515; 133011</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>133234; 178042</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>41313; 135955</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>184831; 238065</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>212604; 267211</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>247524; 301940</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>202032; 244463</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>314526; 378642</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>314144; 384069</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>392860; 470252</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>199850; 382436</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1099</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2312</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1667</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1625</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3196</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>455794</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>611383</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>640445</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>776794</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>806617</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1188971</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1102356</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1534383</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1262411</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1800354</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1742802</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2311177</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>419332; 499643</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>566113; 658389</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>599790; 685922</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>602104; 855818</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>760960; 859025</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1129279; 1248204</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1043727; 1156043</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1387080; 1944977</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1199751; 1327515</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1728497; 1880953</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1666980; 1821371</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2074461; 2778298</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>